--- a/Data/phenotypic data/RawData/2011 Data/BogUpper5-R7.xlsx
+++ b/Data/phenotypic data/RawData/2011 Data/BogUpper5-R7.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="114">
   <si>
     <t>Berry</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>*3.86</t>
-  </si>
-  <si>
-    <t>*3.1</t>
   </si>
   <si>
     <t>*4.81</t>
@@ -1325,30 +1322,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="K152" workbookViewId="0">
+      <selection activeCell="V163" sqref="V163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="5" customWidth="1"/>
-    <col min="17" max="19" width="8.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="10" style="3"/>
+    <col min="2" max="9" width="6.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="6.6640625" style="4" customWidth="1"/>
+    <col min="14" max="16" width="6.6640625" style="5" customWidth="1"/>
+    <col min="17" max="19" width="6.6640625" style="3" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1">
@@ -1853,7 +1841,7 @@
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2543,7 +2531,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K43" s="46">
-        <v>226.08</v>
+        <v>26.08</v>
       </c>
       <c r="L43" s="46">
         <v>19.239999999999998</v>
@@ -2739,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="49">
         <v>9.01</v>
@@ -3111,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="26">
         <v>1</v>
@@ -3519,7 +3507,7 @@
     </row>
     <row r="60" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3989,7 +3977,7 @@
         <v>6.38</v>
       </c>
       <c r="H69" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="26">
         <v>0</v>
@@ -5047,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="26">
         <v>0</v>
@@ -5118,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="26">
         <v>0</v>
@@ -5185,7 +5173,7 @@
     </row>
     <row r="89" spans="1:23" ht="19.5" customHeight="1">
       <c r="A89" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -5655,8 +5643,8 @@
       <c r="F98" s="26">
         <v>0</v>
       </c>
-      <c r="G98" s="50" t="s">
-        <v>86</v>
+      <c r="G98" s="50">
+        <v>3.9</v>
       </c>
       <c r="H98" s="47">
         <v>0.5</v>
@@ -6001,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H103" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I103" s="26"/>
       <c r="J103" s="15"/>
@@ -6066,13 +6054,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H104" s="47">
         <v>3.5</v>
       </c>
       <c r="I104" s="26">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J104" s="15">
         <v>6.5000000000000002E-2</v>
@@ -6121,7 +6109,7 @@
     </row>
     <row r="106" spans="1:23" ht="19.5" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="17"/>
       <c r="C106" s="2"/>
@@ -6162,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H107" s="26">
         <v>2.6</v>
@@ -6432,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H111" s="26">
         <v>8.4</v>
@@ -6767,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H116" s="26">
         <v>3.9</v>
@@ -6841,7 +6829,7 @@
     </row>
     <row r="118" spans="1:23" ht="19.5" customHeight="1">
       <c r="A118" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -7072,7 +7060,7 @@
     </row>
     <row r="123" spans="1:23" ht="19.5" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B123" s="40"/>
       <c r="C123" s="40"/>
@@ -7134,7 +7122,7 @@
         <v>18.010000000000002</v>
       </c>
       <c r="M124" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N124" s="46">
         <v>2.98</v>
@@ -7271,7 +7259,7 @@
         <v>18.91</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N126" s="46">
         <v>2.97</v>
@@ -7322,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H127" s="26">
         <v>3.8</v>
@@ -7616,7 +7604,7 @@
         <v>19.54</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N131" s="46">
         <v>3.04</v>
@@ -7655,7 +7643,7 @@
         <v>6</v>
       </c>
       <c r="C132" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" s="26">
         <v>2</v>
@@ -7667,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H132" s="26">
         <v>3.2</v>
@@ -7736,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H133" s="26">
         <v>2.2999999999999998</v>
@@ -7754,7 +7742,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="M133" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N133" s="46">
         <v>3.03</v>
@@ -7812,7 +7800,7 @@
     </row>
     <row r="135" spans="1:23" ht="19.5" customHeight="1">
       <c r="A135" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -7874,7 +7862,7 @@
         <v>17.190000000000001</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N136" s="46">
         <v>2.91</v>
@@ -8200,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H141" s="26">
         <v>1.8</v>
@@ -8218,7 +8206,7 @@
         <v>18.63</v>
       </c>
       <c r="M141" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N141" s="46">
         <v>2.97</v>
@@ -8338,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H143" s="26">
         <v>3</v>
@@ -8552,7 +8540,7 @@
     </row>
     <row r="147" spans="1:23" ht="19.5" customHeight="1">
       <c r="A147" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -8783,7 +8771,7 @@
     </row>
     <row r="152" spans="1:23" ht="19.5" customHeight="1">
       <c r="A152" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
@@ -8854,7 +8842,7 @@
         <v>82</v>
       </c>
       <c r="P153" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q153" s="26" t="s">
         <v>71</v>
@@ -8895,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H154" s="26">
         <v>3.2</v>
@@ -8913,7 +8901,7 @@
         <v>16.37</v>
       </c>
       <c r="M154" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N154" s="46">
         <v>2.56</v>
@@ -8964,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H155" s="26">
         <v>3.5</v>
@@ -9240,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H159" s="26">
         <v>0.8</v>
@@ -9258,7 +9246,7 @@
         <v>18.22</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N159" s="46">
         <v>2.87</v>
